--- a/src/models/baselines/XGBoost/results/real-world/Kaggle/metrics.xlsx
+++ b/src/models/baselines/XGBoost/results/real-world/Kaggle/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6471364582317172</v>
+        <v>0.6386964957348336</v>
       </c>
     </row>
     <row r="3">
@@ -476,7 +476,7 @@
         <v>0.4334975369458128</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6157224498422917</v>
+        <v>0.6367979004758344</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.4679802955665024</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.4679802955665024</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6639277739841098</v>
+        <v>0.6344221159995231</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4532019704433498</v>
+        <v>0.4679802955665024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4532019704433497</v>
+        <v>0.4679802955665024</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6127230134729403</v>
+        <v>0.5962437268992727</v>
       </c>
     </row>
     <row r="6">
@@ -518,7 +518,7 @@
         <v>0.4532019704433497</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6354671359975721</v>
+        <v>0.6242588798924765</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4334975369458128</v>
+        <v>0.4532019704433498</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4334975369458128</v>
+        <v>0.4532019704433497</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6094559880336877</v>
+        <v>0.634388785917905</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4876847290640394</v>
+        <v>0.4926108374384237</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4876847290640394</v>
+        <v>0.4926108374384237</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6640761334937513</v>
+        <v>0.6604362447024138</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4532019704433498</v>
+        <v>0.458128078817734</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4532019704433497</v>
+        <v>0.458128078817734</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6489627028257406</v>
+        <v>0.6487700386954118</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.477832512315271</v>
+        <v>0.5024630541871922</v>
       </c>
       <c r="C10" t="n">
-        <v>0.477832512315271</v>
+        <v>0.5024630541871922</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6379021287896033</v>
+        <v>0.6322532219078898</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3990147783251232</v>
+        <v>0.4679802955665024</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3990147783251232</v>
+        <v>0.4679802955665024</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6169028224888629</v>
+        <v>0.639856816137179</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4556650246305419</v>
+        <v>0.4645320197044335</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4556650246305418</v>
+        <v>0.4645320197044335</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6352276607160278</v>
+        <v>0.6346124226362739</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02827450797655594</v>
+        <v>0.02051559697751788</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02827450797655594</v>
+        <v>0.02051559697751789</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02076456131324144</v>
+        <v>0.01667090688133856</v>
       </c>
     </row>
   </sheetData>
